--- a/src/input_trial_balances/TESTUS04.xlsx
+++ b/src/input_trial_balances/TESTUS04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9B9E2-D512-F04F-AE07-0BFDBC4B1B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B0EA9-90D6-1545-B038-0A184413F02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Company Name:</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>US04</t>
-  </si>
-  <si>
-    <t>            1,000.00 </t>
-  </si>
-  <si>
-    <t>         (33,000.00)</t>
   </si>
 </sst>
 </file>
@@ -521,15 +515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD61E748-E5AF-FC4B-AADF-7588769BCF54}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C3:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,7 +533,7 @@
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1">
@@ -553,7 +547,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -564,10 +558,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -576,8 +569,8 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
+      <c r="C4" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,8 +580,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
+      <c r="C5" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,8 +591,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
+      <c r="C6" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,8 +602,8 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
+      <c r="C7" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,8 +613,8 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
+      <c r="C8" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,8 +624,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
+      <c r="C9" s="2">
+        <v>-33000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,8 +635,8 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
+      <c r="C10" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,8 +646,8 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
+      <c r="C11" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,8 +657,8 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
+      <c r="C12" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,8 +668,8 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+      <c r="C13" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -686,8 +679,8 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
+      <c r="C14" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,8 +690,8 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+      <c r="C15" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -708,8 +701,8 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
+      <c r="C16" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,8 +712,8 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
+      <c r="C17" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,8 +723,8 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
+      <c r="C18" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,8 +734,8 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
+      <c r="C19" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,8 +745,8 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
+      <c r="C20" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,8 +756,8 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
+      <c r="C21" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,8 +767,8 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
+      <c r="C22" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,8 +778,8 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,8 +789,8 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,8 +800,8 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
+      <c r="C25" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,8 +811,8 @@
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C26" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,8 +822,8 @@
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
+      <c r="C27" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,8 +833,8 @@
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
+      <c r="C28" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,8 +844,8 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
+      <c r="C29" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,8 +855,8 @@
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
+      <c r="C30" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,8 +866,8 @@
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
+      <c r="C31" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,8 +877,8 @@
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
+      <c r="C32" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,8 +888,8 @@
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
+      <c r="C33" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,8 +899,8 @@
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
+      <c r="C34" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,8 +910,8 @@
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
+      <c r="C35" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,8 +921,8 @@
       <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
+      <c r="C36" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/src/input_trial_balances/TESTUS04.xlsx
+++ b/src/input_trial_balances/TESTUS04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B0EA9-90D6-1545-B038-0A184413F02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9129C-E737-FF42-9A26-48EA7125CBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C3:C36"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>-33000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>1000</v>
+        <v>-33000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
